--- a/Polaris/PlusMatlabUtils-master/MatlabOpenIGTLinkInterface/data/26-Jul-2019/indexTests.xlsx
+++ b/Polaris/PlusMatlabUtils-master/MatlabOpenIGTLinkInterface/data/26-Jul-2019/indexTests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esteban\Google Drive\ROBOTICS (MSc)\Dissertation\DissertationSoftware\Software\Polaris\PlusMatlabUtils-master\MatlabOpenIGTLinkInterface\data\26-Jul-2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9715B52F-B3E8-4CC9-B830-6EB68A9532D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D46A792-290F-4CA2-A210-27F8347BD41E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{706D53EF-7B0A-47E7-A704-E4F4103129FA}"/>
+    <workbookView xWindow="12750" yWindow="-16200" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{706D53EF-7B0A-47E7-A704-E4F4103129FA}"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="2" r:id="rId1"/>
@@ -17437,10 +17437,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEB8791-6CF2-4043-B0CF-6F4B42E00FA8}">
-  <dimension ref="B1:H6"/>
+  <dimension ref="B1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17608,6 +17608,32 @@
       <c r="H6" s="2">
         <f>AVERAGE(index__5[err_time_series_test_t])</f>
         <v>12.7220864</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f>MIN(C2:C6)</f>
+        <v>8.5237599999999993</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:H7" si="0">MIN(D2:D6)</f>
+        <v>8.4959639999999972</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>4.1300559999999997</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>20.270776000000012</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>20.330930399999996</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>6.3809576000000012</v>
       </c>
     </row>
   </sheetData>
